--- a/LLD_CS.xlsx
+++ b/LLD_CS.xlsx
@@ -1677,7 +1677,7 @@
   <dimension ref="A1:IV51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:U16"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3463,7 +3463,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:U16"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4955,7 +4955,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:U16"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
